--- a/Game_Design_Document.xlsx
+++ b/Game_Design_Document.xlsx
@@ -7,7 +7,15 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Intro" sheetId="1" r:id="rId1"/>
+    <sheet name="System" sheetId="9" r:id="rId2"/>
+    <sheet name="Player" sheetId="2" r:id="rId3"/>
+    <sheet name="Job" sheetId="7" r:id="rId4"/>
+    <sheet name="World" sheetId="3" r:id="rId5"/>
+    <sheet name="Monster" sheetId="4" r:id="rId6"/>
+    <sheet name="Item" sheetId="5" r:id="rId7"/>
+    <sheet name="Battle" sheetId="6" r:id="rId8"/>
+    <sheet name="UI" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,14 +26,790 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="191">
+  <si>
+    <t>텍스트 RPG란?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*그래픽 대신 텍스트(문자)만을 사용하여 게임을 진행하는 롤플레잉 게임 장르</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 컨셉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력 방식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 키보드로 특정 숫자를 입력한 후 엔터를 눌러 입력하는 방식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 키보드의 방향키(상/하/좌/우)의 입력으로 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-1. Enter 와 Backspace 버튼의 이벤트 처리?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">이름 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물방</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특방</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;정보&gt; </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;게이지&gt; </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;스텟&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>######################################################################</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#######################################################################</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;전투 로그&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*마을</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*전투</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;컨텐츠 및 선택지&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;적 정보&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*키보드 커서 제거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*키보드 이벤트 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스텟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마법사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>암살자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마을</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>던전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬라임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고블린</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골렘(중간 보스급)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>놀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중간 보스 급</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀘스트 수주 =&gt; 바로 던전으로 향할 수 있음 =&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통상 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도망</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전직</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경험치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경험치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스피드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크리율(CRIT)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물공(STR)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물방(DEF)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반격(Counter)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회피(Dodge)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인벤토리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>str / int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갑옷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>def/res</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">spd </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광전사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>궁수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스피드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반격 높음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크리 높음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회피 높음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 물약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마나 물약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각종 버프 물약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 흡수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특방 높음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>높은 체력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어 높음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 높음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백마도사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흑마도사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빛 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화염</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>속도 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빙결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강한 딜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회복 강화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>큐어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반경 높음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기습</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선제 공격 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>랜덤한 특정 키를 연달아 눌러서 성공하였을 때</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반 전투</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실패</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터의 선제 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>속도에 따른 공격 순서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특수 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4가지 선택지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스텟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;현재 위치&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*던전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기습</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마을로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마나소비|턴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스피드(SPD)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데미지 비율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본공격 = 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본공격*1.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본공격*2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본공격*2.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본공격*3.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크리티컬 데미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20퍼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데미지 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데미지 100 기준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>((100/(100+방어)) * 데미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 방식에서의 스피드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 시간 20 기준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50/스피드 : 마다 한번씩 공격한다고 할때…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pq에 넣고 처음 50/스피드를 각자 넣고 해당 시간에서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50/스피드를 다시 더해서 pq에 넣음…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int 5000/(spd*100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1렙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10렙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20렙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0~7고정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배수 높음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 높음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 배수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50+10*LV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50*Lv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">(100 / 100+5+x) *(10+2x) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000 + 200x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>105 + x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5+Lv/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10+3*lv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5+Lv/4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>법사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>암살</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여관 회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100골드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50골드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20골드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50골드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갑옷(방)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기(공, 반격)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신발(스, 회피)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*던전에서 몬스터를 잡고 레벨을 올려서 상위 클래스로 전직하자.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -53,7 +837,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -69,7 +853,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -114,7 +898,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -149,7 +933,7 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -331,12 +1115,1561 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:A9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:A13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K56"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>154</v>
+      </c>
+      <c r="F6">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7">
+        <v>60</v>
+      </c>
+      <c r="D7">
+        <v>100</v>
+      </c>
+      <c r="E7">
+        <v>150</v>
+      </c>
+      <c r="F7">
+        <v>200</v>
+      </c>
+      <c r="G7">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" t="s">
+        <v>168</v>
+      </c>
+      <c r="C9">
+        <v>50</v>
+      </c>
+      <c r="D9">
+        <v>250</v>
+      </c>
+      <c r="E9">
+        <v>500</v>
+      </c>
+      <c r="F9">
+        <v>750</v>
+      </c>
+      <c r="G9">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" t="s">
+        <v>173</v>
+      </c>
+      <c r="C12">
+        <v>8</v>
+      </c>
+      <c r="D12">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>40</v>
+      </c>
+      <c r="F12">
+        <v>55</v>
+      </c>
+      <c r="G12">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C13">
+        <v>5.5</v>
+      </c>
+      <c r="D13">
+        <v>7.5</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <v>12.5</v>
+      </c>
+      <c r="G13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>134</v>
+      </c>
+      <c r="B14" t="s">
+        <v>174</v>
+      </c>
+      <c r="C14">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D14">
+        <v>6.25</v>
+      </c>
+      <c r="E14">
+        <v>7.5</v>
+      </c>
+      <c r="F14">
+        <v>8.75</v>
+      </c>
+      <c r="G14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" t="s">
+        <v>175</v>
+      </c>
+      <c r="F15" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16">
+        <v>10</v>
+      </c>
+      <c r="D16">
+        <v>20</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
+      <c r="F16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17">
+        <v>20</v>
+      </c>
+      <c r="D17">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>10</v>
+      </c>
+      <c r="F17">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18">
+        <v>10</v>
+      </c>
+      <c r="D18">
+        <v>10</v>
+      </c>
+      <c r="E18">
+        <v>20</v>
+      </c>
+      <c r="F18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" t="s">
+        <v>81</v>
+      </c>
+      <c r="F24" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" t="s">
+        <v>80</v>
+      </c>
+      <c r="F25" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>133</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29">
+        <v>4</v>
+      </c>
+      <c r="F29">
+        <v>5</v>
+      </c>
+      <c r="G29">
+        <v>6</v>
+      </c>
+      <c r="H29">
+        <v>7</v>
+      </c>
+      <c r="I29">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30">
+        <v>4</v>
+      </c>
+      <c r="F30">
+        <v>5</v>
+      </c>
+      <c r="G30">
+        <v>6</v>
+      </c>
+      <c r="H30">
+        <v>7</v>
+      </c>
+      <c r="I30">
+        <v>8</v>
+      </c>
+      <c r="K30" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>2.5</v>
+      </c>
+      <c r="D31">
+        <v>3.5</v>
+      </c>
+      <c r="E31">
+        <v>5</v>
+      </c>
+      <c r="F31">
+        <v>6</v>
+      </c>
+      <c r="G31">
+        <v>7.5</v>
+      </c>
+      <c r="H31">
+        <v>8.5</v>
+      </c>
+      <c r="I31">
+        <v>9</v>
+      </c>
+      <c r="K31" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>4</v>
+      </c>
+      <c r="E32">
+        <v>5</v>
+      </c>
+      <c r="F32">
+        <v>6</v>
+      </c>
+      <c r="G32">
+        <v>8</v>
+      </c>
+      <c r="H32">
+        <v>9</v>
+      </c>
+      <c r="I32">
+        <v>10</v>
+      </c>
+      <c r="K32" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>3</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33">
+        <v>5.5</v>
+      </c>
+      <c r="F33">
+        <v>6.5</v>
+      </c>
+      <c r="G33">
+        <v>7.5</v>
+      </c>
+      <c r="H33">
+        <v>8.5</v>
+      </c>
+      <c r="I33">
+        <v>11</v>
+      </c>
+      <c r="K33" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>4</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34">
+        <v>4</v>
+      </c>
+      <c r="F34">
+        <v>7.5</v>
+      </c>
+      <c r="G34">
+        <v>8.5</v>
+      </c>
+      <c r="H34">
+        <v>9.5</v>
+      </c>
+      <c r="I34">
+        <v>10.5</v>
+      </c>
+      <c r="K34" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>141</v>
+      </c>
+      <c r="B36" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>143</v>
+      </c>
+      <c r="B38" t="s">
+        <v>145</v>
+      </c>
+      <c r="D38" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>10</v>
+      </c>
+      <c r="D41">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>20</v>
+      </c>
+      <c r="D42">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>30</v>
+      </c>
+      <c r="D43">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>40</v>
+      </c>
+      <c r="D44">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>148</v>
+      </c>
+      <c r="C48" t="s">
+        <v>149</v>
+      </c>
+      <c r="H48" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>4</v>
+      </c>
+      <c r="C49">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>5</v>
+      </c>
+      <c r="C50">
+        <v>10</v>
+      </c>
+      <c r="E50" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>6</v>
+      </c>
+      <c r="C51">
+        <v>8.33</v>
+      </c>
+      <c r="E51" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>7</v>
+      </c>
+      <c r="C52">
+        <v>7.14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>8</v>
+      </c>
+      <c r="C53">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>9</v>
+      </c>
+      <c r="C54">
+        <v>5.55</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>10</v>
+      </c>
+      <c r="C55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>25</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:I16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H4" t="s">
+        <v>97</v>
+      </c>
+      <c r="I4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" t="s">
+        <v>100</v>
+      </c>
+      <c r="H6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
+        <v>177</v>
+      </c>
+      <c r="F8" t="s">
+        <v>105</v>
+      </c>
+      <c r="G8" t="s">
+        <v>107</v>
+      </c>
+      <c r="H8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>157</v>
+      </c>
+      <c r="G9" t="s">
+        <v>110</v>
+      </c>
+      <c r="H9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>160</v>
+      </c>
+      <c r="F10" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" t="s">
+        <v>112</v>
+      </c>
+      <c r="H10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>161</v>
+      </c>
+      <c r="G11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" t="s">
+        <v>84</v>
+      </c>
+      <c r="G13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>163</v>
+      </c>
+      <c r="D14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>164</v>
+      </c>
+      <c r="D15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F15" t="s">
+        <v>85</v>
+      </c>
+      <c r="G15" t="s">
+        <v>89</v>
+      </c>
+      <c r="H15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>165</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>5</v>
+      </c>
+      <c r="D1">
+        <v>10</v>
+      </c>
+      <c r="E1">
+        <v>15</v>
+      </c>
+      <c r="F1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+      <c r="D6">
+        <v>180</v>
+      </c>
+      <c r="E6">
+        <v>300</v>
+      </c>
+      <c r="F6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>40</v>
+      </c>
+      <c r="D8">
+        <v>90</v>
+      </c>
+      <c r="E8">
+        <v>160</v>
+      </c>
+      <c r="F8">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>15</v>
+      </c>
+      <c r="E11">
+        <v>20</v>
+      </c>
+      <c r="F11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>15</v>
+      </c>
+      <c r="F12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>134</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>7</v>
+      </c>
+      <c r="D13">
+        <v>8</v>
+      </c>
+      <c r="E13">
+        <v>7</v>
+      </c>
+      <c r="F13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <v>15</v>
+      </c>
+      <c r="F15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>10</v>
+      </c>
+      <c r="D16">
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
+      <c r="F16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>10</v>
+      </c>
+      <c r="D17">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>20</v>
+      </c>
+      <c r="F17">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" t="s">
+        <v>179</v>
+      </c>
+      <c r="D9" t="s">
+        <v>186</v>
+      </c>
+      <c r="E9" t="s">
+        <v>180</v>
+      </c>
+      <c r="F9" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" t="s">
+        <v>183</v>
+      </c>
+      <c r="D10" t="s">
+        <v>182</v>
+      </c>
+      <c r="E10" t="s">
+        <v>184</v>
+      </c>
+      <c r="F10" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>178</v>
+      </c>
+      <c r="C14" t="s">
+        <v>185</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A15:F24"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>118</v>
+      </c>
+      <c r="B16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>119</v>
+      </c>
+      <c r="B18" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>125</v>
+      </c>
+      <c r="C24" t="s">
+        <v>122</v>
+      </c>
+      <c r="D24" t="s">
+        <v>123</v>
+      </c>
+      <c r="E24" t="s">
+        <v>124</v>
+      </c>
+      <c r="F24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:H21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>129</v>
+      </c>
+      <c r="B11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>132</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>131</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21" t="s">
+        <v>65</v>
+      </c>
+      <c r="H21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Game_Design_Document.xlsx
+++ b/Game_Design_Document.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="193">
   <si>
     <t>텍스트 RPG란?</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -789,7 +789,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>*던전에서 몬스터를 잡고 레벨을 올려서 상위 클래스로 전직하자.</t>
+    <t>제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OutClass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*던전에서 몬스터를 잡고 레벨을 올려서 여러 분기로 나뉘어진 상위 클래스로 전직하자.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1115,32 +1123,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:A9"/>
+  <dimension ref="A2:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/Game_Design_Document.xlsx
+++ b/Game_Design_Document.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03130BC6-9E86-4EFB-AB2F-6490F0EE5693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="8565" yWindow="2535" windowWidth="11580" windowHeight="11295" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="193">
   <si>
     <t>텍스트 RPG란?</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -804,7 +805,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1122,11 +1123,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1167,7 +1168,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:A13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1218,11 +1219,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1848,7 +1849,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2016,7 +2017,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2108,10 +2109,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -2345,7 +2346,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A2:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2433,7 +2434,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A15:F24"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -2500,10 +2501,10 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A2:H21"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>

--- a/Game_Design_Document.xlsx
+++ b/Game_Design_Document.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03130BC6-9E86-4EFB-AB2F-6490F0EE5693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="8565" yWindow="2535" windowWidth="11580" windowHeight="11295" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8565" yWindow="2535" windowWidth="11580" windowHeight="11295" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="1" r:id="rId1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="194">
   <si>
     <t>텍스트 RPG란?</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -614,10 +613,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>((100/(100+방어)) * 데미지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>공격 방식에서의 스피드</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -626,10 +621,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>50/스피드 : 마다 한번씩 공격한다고 할때…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>pq에 넣고 처음 50/스피드를 각자 넣고 해당 시간에서</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -718,18 +709,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5+Lv/2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>10+3*lv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5+Lv/4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>법사</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -799,13 +782,33 @@
   </si>
   <si>
     <t>*던전에서 몬스터를 잡고 레벨을 올려서 여러 분기로 나뉘어진 상위 클래스로 전직하자.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20 + lv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200/스피드 : 마다 한번씩 공격한다고 할때…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>((100/(100+방어/2)) * 데미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데미지 * 200 / (200 + 방어)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10 + lv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1123,7 +1126,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1144,10 +1147,10 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B6" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -1157,7 +1160,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -1168,7 +1171,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1219,11 +1222,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1252,22 +1255,22 @@
         <v>60</v>
       </c>
       <c r="B6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D6">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F6">
         <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -1275,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C7">
         <v>60</v>
@@ -1298,7 +1301,7 @@
         <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -1306,7 +1309,7 @@
         <v>62</v>
       </c>
       <c r="B9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C9">
         <v>50</v>
@@ -1334,7 +1337,7 @@
         <v>70</v>
       </c>
       <c r="B12" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C12">
         <v>8</v>
@@ -1357,22 +1360,22 @@
         <v>71</v>
       </c>
       <c r="B13" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="C13">
-        <v>5.5</v>
+        <v>11</v>
       </c>
       <c r="D13">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="E13">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F13">
-        <v>12.5</v>
+        <v>25</v>
       </c>
       <c r="G13">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -1380,22 +1383,22 @@
         <v>134</v>
       </c>
       <c r="B14" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="C14">
-        <v>5.0999999999999996</v>
+        <v>21</v>
       </c>
       <c r="D14">
-        <v>6.25</v>
+        <v>25</v>
       </c>
       <c r="E14">
-        <v>7.5</v>
+        <v>30</v>
       </c>
       <c r="F14">
-        <v>8.75</v>
+        <v>35</v>
       </c>
       <c r="G14">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -1403,10 +1406,10 @@
         <v>38</v>
       </c>
       <c r="E15" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F15" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -1414,16 +1417,16 @@
         <v>72</v>
       </c>
       <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16">
         <v>10</v>
       </c>
-      <c r="D16">
-        <v>20</v>
-      </c>
       <c r="E16">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F16">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -1431,16 +1434,16 @@
         <v>73</v>
       </c>
       <c r="C17">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D17">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E17">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F17">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -1473,7 +1476,7 @@
         <v>78</v>
       </c>
       <c r="F23" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -1484,7 +1487,7 @@
         <v>81</v>
       </c>
       <c r="F24" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -1495,7 +1498,7 @@
         <v>80</v>
       </c>
       <c r="F25" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -1700,6 +1703,11 @@
         <v>142</v>
       </c>
     </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D37" t="s">
+        <v>192</v>
+      </c>
+    </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>143</v>
@@ -1708,7 +1716,7 @@
         <v>145</v>
       </c>
       <c r="D38" t="s">
-        <v>146</v>
+        <v>191</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
@@ -1758,18 +1766,18 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C48" t="s">
-        <v>149</v>
+        <v>190</v>
       </c>
       <c r="H48" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -1788,7 +1796,7 @@
         <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -1799,7 +1807,7 @@
         <v>8.33</v>
       </c>
       <c r="E51" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -1845,11 +1853,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1877,7 +1886,7 @@
         <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F4" t="s">
         <v>82</v>
@@ -1894,7 +1903,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -1916,7 +1925,7 @@
         <v>39</v>
       </c>
       <c r="D8" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F8" t="s">
         <v>105</v>
@@ -1930,7 +1939,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G9" t="s">
         <v>110</v>
@@ -1941,7 +1950,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F10" t="s">
         <v>104</v>
@@ -1955,7 +1964,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G11" t="s">
         <v>111</v>
@@ -1963,7 +1972,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -1982,7 +1991,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D14" t="s">
         <v>87</v>
@@ -1990,7 +1999,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D15" t="s">
         <v>91</v>
@@ -2007,7 +2016,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -2017,7 +2026,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2109,11 +2118,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2244,19 +2253,19 @@
         <v>71</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C12">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D12">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F12">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -2264,19 +2273,19 @@
         <v>134</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C13">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D13">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="E13">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="F13">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -2346,7 +2355,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2362,17 +2371,17 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -2385,16 +2394,16 @@
         <v>93</v>
       </c>
       <c r="C9" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D9" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E9" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F9" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -2402,16 +2411,16 @@
         <v>94</v>
       </c>
       <c r="C10" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D10" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E10" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F10" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -2421,10 +2430,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C14" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -2434,7 +2443,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A15:F24"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -2501,7 +2510,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Game_Design_Document.xlsx
+++ b/Game_Design_Document.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="8565" yWindow="2535" windowWidth="11580" windowHeight="11295" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="8565" yWindow="2535" windowWidth="11580" windowHeight="11295" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="1" r:id="rId1"/>
@@ -1225,8 +1225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="I45" sqref="I45"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1340,7 +1340,7 @@
         <v>170</v>
       </c>
       <c r="C12">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D12">
         <v>25</v>
@@ -2359,7 +2359,7 @@
   <dimension ref="A2:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
